--- a/benchmarks/benchmark_hpc_4.xlsx
+++ b/benchmarks/benchmark_hpc_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB289A4-1958-4E2C-B2AC-8CFC148DC290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498E74EF-8E1D-4B3B-AFFD-E19C690A0388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="2850" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,9 +568,9 @@
         <f t="shared" ref="J2:J9" si="3">_xlfn.STDEV.S(B2:F2)</f>
         <v>3.2211511005262983</v>
       </c>
-      <c r="K2" t="e">
+      <c r="K2">
         <f>RANK(I2,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -620,9 +620,9 @@
         <f t="shared" si="3"/>
         <v>6.6895622171111988</v>
       </c>
-      <c r="K3" t="e">
+      <c r="K3">
         <f>RANK(I3,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -672,9 +672,9 @@
         <f t="shared" si="3"/>
         <v>3.1870276643239643</v>
       </c>
-      <c r="K4" t="e">
+      <c r="K4">
         <f>RANK(I4,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -724,9 +724,9 @@
         <f t="shared" si="3"/>
         <v>4.0131186960269849</v>
       </c>
-      <c r="K5" t="e">
+      <c r="K5">
         <f>RANK(I5,I2:I10,1)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -776,9 +776,9 @@
         <f t="shared" si="3"/>
         <v>1.7927274856302893</v>
       </c>
-      <c r="K6" t="e">
+      <c r="K6">
         <f>RANK(I6,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -803,25 +803,34 @@
       <c r="C7">
         <v>481.5040803</v>
       </c>
+      <c r="D7">
+        <v>481.02503089999999</v>
+      </c>
+      <c r="E7">
+        <v>484.53687930000001</v>
+      </c>
+      <c r="F7">
+        <v>494.10810579999998</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>481.5040803</v>
+        <v>481.02503089999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>484.45043440000001</v>
+        <v>494.10810579999998</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>482.97725735</v>
+        <v>485.12490614000001</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>2.0833869638867926</v>
-      </c>
-      <c r="K7" t="e">
+        <v>5.2777343759235249</v>
+      </c>
+      <c r="K7">
         <f>RANK(I7,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -843,25 +852,37 @@
       <c r="B8">
         <v>666.53863060000003</v>
       </c>
+      <c r="C8">
+        <v>669.56528760000003</v>
+      </c>
+      <c r="D8">
+        <v>679.33953250000002</v>
+      </c>
+      <c r="E8">
+        <v>664.08176900000001</v>
+      </c>
+      <c r="F8">
+        <v>666.38957589999995</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>666.53863060000003</v>
+        <v>664.08176900000001</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>666.53863060000003</v>
+        <v>679.33953250000002</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>666.53863060000003</v>
-      </c>
-      <c r="J8" t="e">
+        <v>669.18295911999996</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" t="e">
+        <v>6.0024945161531118</v>
+      </c>
+      <c r="K8">
         <f>RANK(I8,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -880,25 +901,40 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>623.12246740000001</v>
+      </c>
+      <c r="C9">
+        <v>612.43619049999995</v>
+      </c>
+      <c r="D9">
+        <v>619.75209529999995</v>
+      </c>
+      <c r="E9">
+        <v>622.25923030000001</v>
+      </c>
+      <c r="F9">
+        <v>605.05800150000005</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>605.05800150000005</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
+        <v>623.12246740000001</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" t="e">
+        <v>616.52559700000006</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" t="e">
+        <v>7.6653853987752907</v>
+      </c>
+      <c r="K9">
         <f>RANK(I9,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
